--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -38,6 +38,18 @@
     <t xml:space="preserve">B.1</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|1974|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|2007|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.234</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|203|ETA|20200408</t>
   </si>
   <si>
@@ -134,6 +146,9 @@
     <t xml:space="preserve">UPHS|242|OP|20200429</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|2456|Saliva|20210101</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|247|NP-OP|20200501</t>
   </si>
   <si>
@@ -257,15 +272,27 @@
     <t xml:space="preserve">B.54</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|3057|Saliva|20210101</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|307|NP-OP|20200717</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.240</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|3110|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|3120|Saliva|20210101</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|3157|Saliva|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|3228|Saliva|20210101</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|373|NP-OP|20201012</t>
   </si>
   <si>
@@ -287,9 +314,6 @@
     <t xml:space="preserve">UPHS|385|Saliva|20201026</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|391|NP-OP|20201104</t>
   </si>
   <si>
@@ -320,10 +344,28 @@
     <t xml:space="preserve">UPHS|427|NP-OP|20201204</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.234</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|428|Saliva|20201207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|4329|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|8504|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|8512|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9070|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9102|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|9106|Saliva|20210101</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|95-267|Saliva_-_Positive_Control|20201211</t>
@@ -707,20 +749,20 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -728,103 +770,103 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -832,7 +874,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -840,7 +882,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -848,15 +890,15 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -864,103 +906,103 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>40</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
         <v>7</v>
@@ -968,7 +1010,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
         <v>7</v>
@@ -976,7 +1018,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -984,7 +1026,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -992,7 +1034,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1000,138 +1042,138 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
         <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
         <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1139,7 +1181,7 @@
         <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -1147,55 +1189,55 @@
         <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="s">
         <v>75</v>
-      </c>
-      <c r="B63" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
@@ -1211,7 +1253,7 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69">
@@ -1219,68 +1261,68 @@
         <v>84</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B77" t="s">
         <v>5</v>
@@ -1288,15 +1330,15 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
         <v>5</v>
@@ -1304,50 +1346,50 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -1363,7 +1405,7 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
@@ -1371,7 +1413,7 @@
         <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -1379,15 +1421,127 @@
         <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
         <v>108</v>
       </c>
-      <c r="B90" t="s">
-        <v>70</v>
+      <c r="B91" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>117</v>
+      </c>
+      <c r="B100" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B104" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -374,10 +374,49 @@
     <t xml:space="preserve">COVIDSAFE|97-736|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|ACUTE21000990|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|ACUTE21000991|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|ACUTE21000998|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|ACUTE21001041|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|AHS19010094|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|AHS19029976|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|AHS21000915|VTM|20210122</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUP|molpath-seq1|Unknown|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|RISONS21001140|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|RISONS21001141|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|RISONS21001143|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|RISONS21001144|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|RISONS21001145|VTM|20210122</t>
   </si>
   <si>
     <t xml:space="preserve">HUP|sdrop1_molpath|0.9%_Saline|20210108</t>
@@ -1533,14 +1572,118 @@
         <v>120</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
         <v>122</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>124</v>
+      </c>
+      <c r="B107" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>133</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>134</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>135</v>
+      </c>
+      <c r="B117" t="s">
         <v>75</v>
       </c>
     </row>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -26,6 +26,12 @@
     <t xml:space="preserve">B.1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health_-_Feldman|100667644|Saliva|20210121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|161|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
@@ -338,6 +344,9 @@
     <t xml:space="preserve">UPHS|423|Saliva|20201202</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|424|NP-OP|20201209</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|425|NP-OP|20201203</t>
   </si>
   <si>
@@ -350,6 +359,15 @@
     <t xml:space="preserve">COVIDSAFE|4329|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|434|NP-OP|20201214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|436|Saliva|20201214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|437|NP-OP|20201218</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
   </si>
   <si>
@@ -398,7 +416,7 @@
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">HUP|molpath-sdrop4|Unknown|20210122</t>
   </si>
   <si>
     <t xml:space="preserve">HUP|molpath-seq1|Unknown|20210122</t>
@@ -420,6 +438,12 @@
   </si>
   <si>
     <t xml:space="preserve">HUP|sdrop1_molpath|0.9%_Saline|20210108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUP|sdrop2_molpath|0.9%_Saline|20210120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.375</t>
   </si>
 </sst>
 </file>
@@ -804,31 +828,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -836,31 +860,31 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -868,39 +892,39 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
@@ -908,95 +932,95 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1004,39 +1028,39 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -1044,79 +1068,79 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -1124,23 +1148,23 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
         <v>59</v>
-      </c>
-      <c r="B48" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50">
@@ -1148,87 +1172,87 @@
         <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
         <v>63</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
@@ -1244,47 +1268,47 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B63" t="s">
         <v>77</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
@@ -1292,15 +1316,15 @@
         <v>83</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
         <v>84</v>
-      </c>
-      <c r="B69" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="70">
@@ -1308,15 +1332,15 @@
         <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B71" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -1324,36 +1348,36 @@
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1361,39 +1385,39 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B81" t="s">
         <v>75</v>
@@ -1401,234 +1425,234 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B83" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B85" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
@@ -1636,7 +1660,7 @@
         <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1668,7 @@
         <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
@@ -1652,7 +1676,7 @@
         <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="114">
@@ -1676,7 +1700,7 @@
         <v>134</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -1684,7 +1708,63 @@
         <v>135</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>137</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">B.1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">Dept_of_Health_-_Feldman|100667644|Saliva|20210121</t>
+    <t xml:space="preserve">Molpath|100667644|Saliva|20210121</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.1.7</t>
@@ -41,36 +41,36 @@
     <t xml:space="preserve">UPHS|197|ETA|20200330</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|1974|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|2007|Saliva|20210101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|203|ETA|20200408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|209|ETA|20200408</t>
+  </si>
+  <si>
     <t xml:space="preserve">B.1</t>
   </si>
   <si>
-    <t xml:space="preserve">COVIDSAFE|1974|Saliva|20210101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COVIDSAFE|2007|Saliva|20210101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS|203|ETA|20200408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UPHS|209|ETA|20200408</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|210|ETA|20200408</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|211|ETA|20200413</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.3</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|211-TCE|ETA|20200413</t>
   </si>
   <si>
@@ -101,9 +101,6 @@
     <t xml:space="preserve">UPHS|223-TCE|OP|20200417</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.276</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|227|OP|20200422</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
     <t xml:space="preserve">UPHS|234|NP-OP-HI|20200424</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.1.61</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|235|NP-OP|20200424</t>
   </si>
   <si>
@@ -140,9 +140,6 @@
     <t xml:space="preserve">UPHS|242|ETA|20200504</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|242|NP|20200429</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t xml:space="preserve">UPHS|247|NP-OP|20200501</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.40</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|251|ETA|20200506</t>
   </si>
   <si>
@@ -191,9 +185,6 @@
     <t xml:space="preserve">UPHS|263|ETA|20200515</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.368</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|263|NP-OP|20200515</t>
   </si>
   <si>
@@ -203,9 +194,6 @@
     <t xml:space="preserve">UPHS|266|NP-OP|20200520</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.255</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|266|NP-OP|20200522</t>
   </si>
   <si>
@@ -266,7 +254,7 @@
     <t xml:space="preserve">UPHS|290|NP-OP|20200629</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.3.1</t>
+    <t xml:space="preserve">B.1.291</t>
   </si>
   <si>
     <t xml:space="preserve">UPHS|290|NP-OP|20200701</t>
@@ -275,9 +263,6 @@
     <t xml:space="preserve">UPHS|300|NP-OP|20200713</t>
   </si>
   <si>
-    <t xml:space="preserve">B.54</t>
-  </si>
-  <si>
     <t xml:space="preserve">COVIDSAFE|3057|Saliva|20210101</t>
   </si>
   <si>
@@ -299,6 +284,9 @@
     <t xml:space="preserve">COVIDSAFE|3228|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|369|NP-OP|20201009</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|373|NP-OP|20201012</t>
   </si>
   <si>
@@ -323,6 +311,9 @@
     <t xml:space="preserve">UPHS|391|NP-OP|20201104</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.1.317</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|401|Saliva|20201111</t>
   </si>
   <si>
@@ -368,6 +359,18 @@
     <t xml:space="preserve">UPHS|437|NP-OP|20201218</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|444|NP-OP|20210108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|448|Saliva|20210115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|452|Saliva|20210115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|453|NP-OP|20210115</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
     <t xml:space="preserve">COVIDSAFE|95-267|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.1.28</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|97-736|Saliva_-_Positive_Control|20201211</t>
   </si>
   <si>
@@ -404,6 +410,9 @@
     <t xml:space="preserve">Dept_of_Health|ACUTE21001041|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">B.1.409</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS19010094|VTM|20210122</t>
   </si>
   <si>
@@ -416,10 +425,172 @@
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
-    <t xml:space="preserve">HUP|molpath-sdrop4|Unknown|20210122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HUP|molpath-seq1|Unknown|20210122</t>
+    <t xml:space="preserve">Dept_of_Health|H2101290600|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101290654|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300048|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300054|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300063|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030405|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030496|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040519|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040684|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040766|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040793|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0001|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0003|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0004|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|molpath-sdrop4|Saline|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|Molpath-SDrop5|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|Molpath-SDrop6|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|molpath-seq1|Saline|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|molpath-seq3|Saline|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MolPath-Seq6|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MP_Cluster2-Seq12|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MP_Cluster2-Seq13|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MP_Cluster2-Seq14|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MP_Cluster2-Seq15|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq1|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq10|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq11|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq2|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq3|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq5|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq6|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq7|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq8|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq9|Swab|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq1|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq10|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq12|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq13|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq14|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq15|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq17|Saliva|20210215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq18|Saliva|20210215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq19|Saliva|20210215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq3|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq4|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq5|Saliva|20210201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|PQ-Seq6|Saliva|20210201</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001140|VTM|20210122</t>
@@ -440,7 +611,7 @@
     <t xml:space="preserve">HUP|sdrop1_molpath|0.9%_Saline|20210108</t>
   </si>
   <si>
-    <t xml:space="preserve">HUP|sdrop2_molpath|0.9%_Saline|20210120</t>
+    <t xml:space="preserve">Molpath|sdrop2_molpath|0.9%_Saline|20210120</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.375</t>
@@ -844,12 +1015,12 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -857,10 +1028,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -868,7 +1039,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
@@ -876,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
@@ -884,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -900,7 +1071,7 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -908,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -916,7 +1087,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -924,7 +1095,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -932,20 +1103,20 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -953,7 +1124,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -961,7 +1132,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -969,7 +1140,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -977,10 +1148,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -988,7 +1159,7 @@
         <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -1020,7 +1191,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -1028,36 +1199,36 @@
         <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
@@ -1065,79 +1236,79 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
         <v>23</v>
@@ -1145,63 +1316,63 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
         <v>23</v>
@@ -1209,7 +1380,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>23</v>
@@ -1217,7 +1388,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
         <v>23</v>
@@ -1225,31 +1396,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1257,87 +1428,87 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
@@ -1345,39 +1516,39 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -1385,23 +1556,23 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -1409,7 +1580,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -1417,95 +1588,95 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -1513,31 +1684,31 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -1545,7 +1716,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1553,23 +1724,23 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -1577,7 +1748,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1585,95 +1756,95 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>126</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -1681,7 +1852,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -1689,31 +1860,31 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B117" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -1721,50 +1892,458 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B123" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>141</v>
+      </c>
+      <c r="B124" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
         <v>142</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>143</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>145</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>164</v>
+      </c>
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+      <c r="B145" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>169</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>171</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>177</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>181</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>182</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>187</v>
+      </c>
+      <c r="B163" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>188</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>190</v>
+      </c>
+      <c r="B166" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>191</v>
+      </c>
+      <c r="B167" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>192</v>
+      </c>
+      <c r="B168" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>194</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>195</v>
+      </c>
+      <c r="B171" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>198</v>
+      </c>
+      <c r="B174" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>199</v>
+      </c>
+      <c r="B175" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -275,15 +275,33 @@
     <t xml:space="preserve">COVIDSAFE|3110|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|312|Saliva|20200727</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|3120|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|314|Saliva|20200729</t>
+  </si>
+  <si>
     <t xml:space="preserve">PennEssentialWorkers_Dec2020|3157|Saliva|20201211</t>
   </si>
   <si>
     <t xml:space="preserve">COVIDSAFE|3228|Saliva|20210101</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|334|NP-OP|20200826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|346|NP-OP|20200916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|348|NP-OP|20200916</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|369|NP-OP|20201009</t>
   </si>
   <si>
@@ -362,6 +380,12 @@
     <t xml:space="preserve">UPHS|444|NP-OP|20210108</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|445|Saliva|20210111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|447|Saliva|20210111</t>
+  </si>
+  <si>
     <t xml:space="preserve">UPHS|448|Saliva|20210115</t>
   </si>
   <si>
@@ -371,6 +395,12 @@
     <t xml:space="preserve">UPHS|453|NP-OP|20210115</t>
   </si>
   <si>
+    <t xml:space="preserve">UPHS|459|Saliva|20200127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPHS|461|Saliva|20200127</t>
+  </si>
+  <si>
     <t xml:space="preserve">COVIDSAFE|4736|Saliva|20210101</t>
   </si>
   <si>
@@ -422,6 +452,15 @@
     <t xml:space="preserve">Dept_of_Health|AHS21000915|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">seqRunControl|AHT2YGAFX2|Negative_control|20210322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl|AHT2YGAFX2-1|Negative_control|20210322</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
@@ -446,6 +485,9 @@
     <t xml:space="preserve">B.1.1.10</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030297|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
   </si>
   <si>
@@ -473,6 +515,75 @@
     <t xml:space="preserve">B.1.427</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0017|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0018|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0019|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0020|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0021|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0022|Saliva|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.480</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0023|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0005|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0006|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0007|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0008|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0009|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0010|Saline|20210222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0002|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0004|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0005|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0006|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0009|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0010|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0011|Saline|20210212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0013|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-PH-0015|Saline|20210211</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-Q-0001|Saline|20210211</t>
   </si>
   <si>
@@ -482,6 +593,12 @@
     <t xml:space="preserve">Molpath|HUP-Q-0004|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">Lennnon_animals|Lennon_canine1|Canine|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.509</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|molpath-sdrop4|Saline|20210122</t>
   </si>
   <si>
@@ -530,6 +647,18 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq11|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq12|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq13|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq14|Saline|20210211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq15|Saline|20210211</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq2|Swab|20210201</t>
   </si>
   <si>
@@ -551,6 +680,18 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq9|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">ODoherty|patient_A1|ImmunoComp_sim|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODoherty|patient_B1|ImmunoComp_sim|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODoherty|patient_C1|ImmunoComp_sim|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODoherty|patient_SS26|Canine_sim|20210301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|PQ-Seq1|Saliva|20210201</t>
   </si>
   <si>
@@ -615,6 +756,255 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0001|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0002|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0003|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0004|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0005|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0006|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0008|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0009|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0010|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0011|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0018|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0019|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0020|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0021|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0022|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0024|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0025|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0026|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0028|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0029|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0032|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0034|unknown|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0035|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0038|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0039|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0040|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0041|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0042|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0043|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0045|saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0046|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0047|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0048|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0049|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0050|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0051|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0052|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0053|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0054|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0055|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0056|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0057|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0058|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0059|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0060|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0061|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0062|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0063|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0064|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0065|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0066|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0067|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0068|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0069|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0070|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0071|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0072|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0073|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0074|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0075|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0076|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0077|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0078|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0079|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0080|VTM|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0081|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0082|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.110.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0083|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0084|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0085|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0086|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0087|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0088|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0090|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0091|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0092|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0093|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0094|Saline|20210308</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1925,7 @@
         <v>87</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -1551,7 +1941,7 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -1559,7 +1949,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
@@ -1567,7 +1957,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -1575,55 +1965,55 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
@@ -1639,7 +2029,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88">
@@ -1647,7 +2037,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
@@ -1663,28 +2053,28 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -1692,31 +2082,31 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -1724,7 +2114,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -1732,23 +2122,23 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -1756,15 +2146,15 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -1772,15 +2162,15 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -1788,7 +2178,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -1796,42 +2186,42 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B111" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
@@ -1839,7 +2229,7 @@
         <v>127</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113">
@@ -1847,7 +2237,7 @@
         <v>128</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114">
@@ -1871,39 +2261,39 @@
         <v>131</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" t="s">
         <v>136</v>
-      </c>
-      <c r="B120" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="121">
@@ -1911,7 +2301,7 @@
         <v>137</v>
       </c>
       <c r="B121" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -1919,44 +2309,44 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
         <v>142</v>
-      </c>
-      <c r="B125" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -1964,74 +2354,74 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" t="s">
         <v>156</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="137">
@@ -2039,7 +2429,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138">
@@ -2047,7 +2437,7 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
@@ -2055,15 +2445,15 @@
         <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" t="s">
         <v>161</v>
-      </c>
-      <c r="B140" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="141">
@@ -2071,79 +2461,79 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
+        <v>172</v>
+      </c>
+      <c r="B150" t="s">
         <v>173</v>
-      </c>
-      <c r="B150" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="151">
@@ -2151,7 +2541,7 @@
         <v>174</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152">
@@ -2159,7 +2549,7 @@
         <v>175</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153">
@@ -2167,7 +2557,7 @@
         <v>176</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154">
@@ -2175,7 +2565,7 @@
         <v>177</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -2183,7 +2573,7 @@
         <v>178</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -2191,7 +2581,7 @@
         <v>179</v>
       </c>
       <c r="B156" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157">
@@ -2199,7 +2589,7 @@
         <v>180</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158">
@@ -2207,7 +2597,7 @@
         <v>181</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -2215,7 +2605,7 @@
         <v>182</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -2223,7 +2613,7 @@
         <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -2231,7 +2621,7 @@
         <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -2239,36 +2629,36 @@
         <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
         <v>73</v>
@@ -2276,34 +2666,34 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>186</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
+        <v>193</v>
+      </c>
+      <c r="B170" t="s">
         <v>194</v>
-      </c>
-      <c r="B170" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="171">
@@ -2311,7 +2701,7 @@
         <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172">
@@ -2319,7 +2709,7 @@
         <v>196</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173">
@@ -2327,7 +2717,7 @@
         <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="174">
@@ -2335,15 +2725,991 @@
         <v>198</v>
       </c>
       <c r="B174" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>200</v>
+      </c>
+      <c r="B175" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>201</v>
+      </c>
+      <c r="B176" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>203</v>
+      </c>
+      <c r="B177" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>206</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>207</v>
+      </c>
+      <c r="B180" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>208</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>209</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>211</v>
+      </c>
+      <c r="B184" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>212</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>214</v>
+      </c>
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>215</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>216</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>217</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>218</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>219</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>220</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>221</v>
+      </c>
+      <c r="B194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>223</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>224</v>
+      </c>
+      <c r="B197" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>225</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>226</v>
+      </c>
+      <c r="B199" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>227</v>
+      </c>
+      <c r="B200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>229</v>
+      </c>
+      <c r="B202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>230</v>
+      </c>
+      <c r="B203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>231</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>234</v>
+      </c>
+      <c r="B206" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>235</v>
+      </c>
+      <c r="B207" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>236</v>
+      </c>
+      <c r="B208" t="s">
         <v>199</v>
       </c>
-      <c r="B175" t="s">
-        <v>200</v>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>237</v>
+      </c>
+      <c r="B209" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>238</v>
+      </c>
+      <c r="B210" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>239</v>
+      </c>
+      <c r="B211" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>240</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>241</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>242</v>
+      </c>
+      <c r="B214" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>243</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>244</v>
+      </c>
+      <c r="B216" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>245</v>
+      </c>
+      <c r="B217" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>246</v>
+      </c>
+      <c r="B218" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>248</v>
+      </c>
+      <c r="B219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>249</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>250</v>
+      </c>
+      <c r="B221" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>251</v>
+      </c>
+      <c r="B222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>252</v>
+      </c>
+      <c r="B223" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>253</v>
+      </c>
+      <c r="B224" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>254</v>
+      </c>
+      <c r="B225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>255</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>256</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>257</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>258</v>
+      </c>
+      <c r="B229" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>259</v>
+      </c>
+      <c r="B230" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>260</v>
+      </c>
+      <c r="B231" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>261</v>
+      </c>
+      <c r="B232" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>262</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>263</v>
+      </c>
+      <c r="B234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>264</v>
+      </c>
+      <c r="B235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>265</v>
+      </c>
+      <c r="B236" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>266</v>
+      </c>
+      <c r="B237" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>268</v>
+      </c>
+      <c r="B238" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>269</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>270</v>
+      </c>
+      <c r="B240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>271</v>
+      </c>
+      <c r="B241" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>272</v>
+      </c>
+      <c r="B242" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>273</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>274</v>
+      </c>
+      <c r="B244" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>275</v>
+      </c>
+      <c r="B245" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>276</v>
+      </c>
+      <c r="B246" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>277</v>
+      </c>
+      <c r="B247" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>278</v>
+      </c>
+      <c r="B248" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>279</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>281</v>
+      </c>
+      <c r="B251" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>282</v>
+      </c>
+      <c r="B252" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>283</v>
+      </c>
+      <c r="B253" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>284</v>
+      </c>
+      <c r="B254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>285</v>
+      </c>
+      <c r="B255" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>286</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>287</v>
+      </c>
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>288</v>
+      </c>
+      <c r="B258" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>289</v>
+      </c>
+      <c r="B259" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>290</v>
+      </c>
+      <c r="B260" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>291</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>292</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>293</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>294</v>
+      </c>
+      <c r="B264" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>295</v>
+      </c>
+      <c r="B265" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>296</v>
+      </c>
+      <c r="B266" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>297</v>
+      </c>
+      <c r="B267" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>299</v>
+      </c>
+      <c r="B268" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>301</v>
+      </c>
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>302</v>
+      </c>
+      <c r="B270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>303</v>
+      </c>
+      <c r="B271" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>304</v>
+      </c>
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>305</v>
+      </c>
+      <c r="B273" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>306</v>
+      </c>
+      <c r="B274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>307</v>
+      </c>
+      <c r="B275" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>308</v>
+      </c>
+      <c r="B276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>309</v>
+      </c>
+      <c r="B277" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>310</v>
+      </c>
+      <c r="B278" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>311</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>312</v>
+      </c>
+      <c r="B280" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>313</v>
+      </c>
+      <c r="B281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>314</v>
+      </c>
+      <c r="B282" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>315</v>
+      </c>
+      <c r="B283" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>316</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>317</v>
+      </c>
+      <c r="B285" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>318</v>
+      </c>
+      <c r="B286" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>320</v>
+      </c>
+      <c r="B287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>321</v>
+      </c>
+      <c r="B288" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>322</v>
+      </c>
+      <c r="B289" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>323</v>
+      </c>
+      <c r="B290" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>324</v>
+      </c>
+      <c r="B291" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>325</v>
+      </c>
+      <c r="B292" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>326</v>
+      </c>
+      <c r="B293" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>327</v>
+      </c>
+      <c r="B294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>328</v>
+      </c>
+      <c r="B295" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>329</v>
+      </c>
+      <c r="B296" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>330</v>
+      </c>
+      <c r="B297" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -86,9 +86,6 @@
     <t xml:space="preserve">B.1.369</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|219|ETA|20200417</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|222-TCE|NP|20200417</t>
   </si>
   <si>
@@ -116,12 +113,6 @@
     <t xml:space="preserve">UPHS|228|Saliva|20200529</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|234|NP-OP-HI|20200424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.61</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|235|NP-OP|20200424</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t xml:space="preserve">UPHS|263|NP-OP|20200515</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|263|NP-OP|20200518</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|266|NP-OP|20200520</t>
   </si>
   <si>
@@ -308,9 +296,6 @@
     <t xml:space="preserve">UPHS|373|NP-OP|20201012</t>
   </si>
   <si>
-    <t xml:space="preserve">UPHS|377|Saliva|20201019</t>
-  </si>
-  <si>
     <t xml:space="preserve">UPHS|379|Saliva|20201019</t>
   </si>
   <si>
@@ -458,9 +443,6 @@
     <t xml:space="preserve">B.1.526</t>
   </si>
   <si>
-    <t xml:space="preserve">seqRunControl|AHT2YGAFX2-1|Negative_control|20210322</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
@@ -491,9 +473,6 @@
     <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
   </si>
   <si>
-    <t xml:space="preserve">Dept_of_Health|H2102030405|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dept_of_Health|H2102030496|VTM_or_Saline|20210209</t>
   </si>
   <si>
@@ -677,9 +656,6 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq8|Swab|20210201</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|MPCluster2-Seq9|Swab|20210201</t>
-  </si>
-  <si>
     <t xml:space="preserve">ODoherty|patient_A1|ImmunoComp_sim|20210301</t>
   </si>
   <si>
@@ -809,9 +785,6 @@
     <t xml:space="preserve">Molpath|UPHS-0025|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">Molpath|UPHS-0026|Saline|20210308</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
   </si>
   <si>
@@ -891,9 +864,6 @@
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0058|VTM|20210308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molpath|UPHS-0059|Saline|20210308</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0060|Saline|20210308</t>
@@ -1501,7 +1471,7 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1533,7 +1503,7 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
@@ -1541,20 +1511,20 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
         <v>23</v>
@@ -1562,23 +1532,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -1586,7 +1556,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1594,7 +1564,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -1602,15 +1572,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -1618,15 +1588,15 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -1634,7 +1604,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -1642,7 +1612,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -1650,7 +1620,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -1658,7 +1628,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -1666,7 +1636,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -1674,63 +1644,63 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -1738,66 +1708,66 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
         <v>67</v>
-      </c>
-      <c r="B58" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="59">
@@ -1805,23 +1775,23 @@
         <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62">
@@ -1829,31 +1799,31 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
         <v>76</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66">
@@ -1861,7 +1831,7 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
@@ -1869,7 +1839,7 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -1877,15 +1847,15 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B69" t="s">
         <v>81</v>
-      </c>
-      <c r="B69" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -1893,7 +1863,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71">
@@ -1901,7 +1871,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
@@ -1909,39 +1879,39 @@
         <v>84</v>
       </c>
       <c r="B72" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" t="s">
         <v>89</v>
-      </c>
-      <c r="B76" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -1949,7 +1919,7 @@
         <v>90</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -1957,7 +1927,7 @@
         <v>91</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -1965,12 +1935,12 @@
         <v>92</v>
       </c>
       <c r="B79" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -1978,50 +1948,50 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
         <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="87">
@@ -2029,7 +1999,7 @@
         <v>101</v>
       </c>
       <c r="B87" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88">
@@ -2037,7 +2007,7 @@
         <v>102</v>
       </c>
       <c r="B88" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
@@ -2045,7 +2015,7 @@
         <v>103</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90">
@@ -2053,28 +2023,28 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2082,31 +2052,31 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2114,7 +2084,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -2122,23 +2092,23 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -2146,7 +2116,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -2154,31 +2124,31 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -2186,31 +2156,31 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B107" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B109" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2218,50 +2188,50 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
         <v>131</v>
-      </c>
-      <c r="B116" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="117">
@@ -2269,7 +2239,7 @@
         <v>132</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118">
@@ -2277,7 +2247,7 @@
         <v>133</v>
       </c>
       <c r="B118" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="119">
@@ -2285,7 +2255,7 @@
         <v>134</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
@@ -2293,15 +2263,15 @@
         <v>135</v>
       </c>
       <c r="B120" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>136</v>
+      </c>
+      <c r="B121" t="s">
         <v>137</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="122">
@@ -2309,7 +2279,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="123">
@@ -2341,7 +2311,7 @@
         <v>143</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127">
@@ -2349,7 +2319,7 @@
         <v>144</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128">
@@ -2357,15 +2327,15 @@
         <v>145</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130">
@@ -2373,7 +2343,7 @@
         <v>148</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="131">
@@ -2381,23 +2351,23 @@
         <v>149</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
@@ -2405,23 +2375,23 @@
         <v>153</v>
       </c>
       <c r="B134" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>156</v>
+        <v>7</v>
       </c>
     </row>
     <row r="137">
@@ -2429,7 +2399,7 @@
         <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138">
@@ -2437,23 +2407,23 @@
         <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141">
@@ -2461,7 +2431,7 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142">
@@ -2469,7 +2439,7 @@
         <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143">
@@ -2477,7 +2447,7 @@
         <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144">
@@ -2501,7 +2471,7 @@
         <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -2509,7 +2479,7 @@
         <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
@@ -2517,7 +2487,7 @@
         <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
@@ -2525,7 +2495,7 @@
         <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150">
@@ -2533,119 +2503,119 @@
         <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>173</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>186</v>
+      </c>
+      <c r="B164" t="s">
         <v>187</v>
-      </c>
-      <c r="B164" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="165">
@@ -2653,7 +2623,7 @@
         <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166">
@@ -2661,7 +2631,7 @@
         <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167">
@@ -2677,36 +2647,36 @@
         <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -2714,34 +2684,34 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B174" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B175" t="s">
-        <v>152</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B176" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177">
@@ -2749,44 +2719,44 @@
         <v>203</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B180" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B181" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
@@ -2794,7 +2764,7 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
@@ -2802,23 +2772,23 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
@@ -2826,55 +2796,55 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B193" t="s">
         <v>13</v>
@@ -2882,7 +2852,7 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
@@ -2890,34 +2860,34 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>194</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>224</v>
+      </c>
+      <c r="B198" t="s">
         <v>225</v>
-      </c>
-      <c r="B198" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -2925,7 +2895,7 @@
         <v>226</v>
       </c>
       <c r="B199" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="200">
@@ -2933,7 +2903,7 @@
         <v>227</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201">
@@ -2941,7 +2911,7 @@
         <v>228</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="202">
@@ -2949,7 +2919,7 @@
         <v>229</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203">
@@ -2957,7 +2927,7 @@
         <v>230</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>225</v>
       </c>
     </row>
     <row r="204">
@@ -2965,7 +2935,7 @@
         <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>192</v>
       </c>
     </row>
     <row r="205">
@@ -2973,55 +2943,55 @@
         <v>232</v>
       </c>
       <c r="B205" t="s">
-        <v>233</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B206" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B207" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>73</v>
+        <v>195</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>233</v>
+        <v>69</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
+        <v>238</v>
+      </c>
+      <c r="B211" t="s">
         <v>239</v>
-      </c>
-      <c r="B211" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="212">
@@ -3029,7 +2999,7 @@
         <v>240</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213">
@@ -3037,7 +3007,7 @@
         <v>241</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="214">
@@ -3045,7 +3015,7 @@
         <v>242</v>
       </c>
       <c r="B214" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215">
@@ -3053,7 +3023,7 @@
         <v>243</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216">
@@ -3061,7 +3031,7 @@
         <v>244</v>
       </c>
       <c r="B216" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217">
@@ -3069,7 +3039,7 @@
         <v>245</v>
       </c>
       <c r="B217" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="218">
@@ -3077,95 +3047,95 @@
         <v>246</v>
       </c>
       <c r="B218" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>73</v>
+        <v>192</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
+        <v>257</v>
+      </c>
+      <c r="B229" t="s">
         <v>258</v>
-      </c>
-      <c r="B229" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="230">
@@ -3173,7 +3143,7 @@
         <v>259</v>
       </c>
       <c r="B230" t="s">
-        <v>199</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231">
@@ -3181,7 +3151,7 @@
         <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232">
@@ -3189,7 +3159,7 @@
         <v>261</v>
       </c>
       <c r="B232" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
@@ -3197,7 +3167,7 @@
         <v>262</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="234">
@@ -3205,7 +3175,7 @@
         <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="235">
@@ -3213,7 +3183,7 @@
         <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -3221,7 +3191,7 @@
         <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="237">
@@ -3229,52 +3199,52 @@
         <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>142</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B243" t="s">
         <v>7</v>
@@ -3282,122 +3252,122 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>147</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B251" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>287</v>
+      </c>
+      <c r="B258" t="s">
         <v>288</v>
-      </c>
-      <c r="B258" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="259">
@@ -3405,71 +3375,71 @@
         <v>289</v>
       </c>
       <c r="B259" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B260" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B261" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B263" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B264" t="s">
-        <v>147</v>
+        <v>69</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B265" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B266" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B267" t="s">
-        <v>298</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -3477,36 +3447,36 @@
         <v>299</v>
       </c>
       <c r="B268" t="s">
-        <v>300</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B271" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B272" t="s">
         <v>16</v>
@@ -3514,42 +3484,42 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B273" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B274" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B275" t="s">
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
+        <v>308</v>
+      </c>
+      <c r="B277" t="s">
         <v>309</v>
-      </c>
-      <c r="B277" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="278">
@@ -3557,7 +3527,7 @@
         <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279">
@@ -3565,7 +3535,7 @@
         <v>311</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="280">
@@ -3573,7 +3543,7 @@
         <v>312</v>
       </c>
       <c r="B280" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
     </row>
     <row r="281">
@@ -3581,7 +3551,7 @@
         <v>313</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="282">
@@ -3589,7 +3559,7 @@
         <v>314</v>
       </c>
       <c r="B282" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="283">
@@ -3597,7 +3567,7 @@
         <v>315</v>
       </c>
       <c r="B283" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="284">
@@ -3605,7 +3575,7 @@
         <v>316</v>
       </c>
       <c r="B284" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="285">
@@ -3613,7 +3583,7 @@
         <v>317</v>
       </c>
       <c r="B285" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286">
@@ -3621,94 +3591,22 @@
         <v>318</v>
       </c>
       <c r="B286" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B287" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B288" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>322</v>
-      </c>
-      <c r="B289" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>323</v>
-      </c>
-      <c r="B290" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>324</v>
-      </c>
-      <c r="B291" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>325</v>
-      </c>
-      <c r="B292" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>326</v>
-      </c>
-      <c r="B293" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>327</v>
-      </c>
-      <c r="B294" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>328</v>
-      </c>
-      <c r="B295" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>329</v>
-      </c>
-      <c r="B296" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>330</v>
-      </c>
-      <c r="B297" t="s">
         <v>5</v>
       </c>
     </row>

--- a/summaries/highQualGenomes/lineages.xlsx
+++ b/summaries/highQualGenomes/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="475">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -428,6 +428,9 @@
     <t xml:space="preserve">B.1.409</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|AHS19005093|VTM|20210122</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS19010094|VTM|20210122</t>
   </si>
   <si>
@@ -437,61 +440,151 @@
     <t xml:space="preserve">Dept_of_Health|AHS21000915|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">seqRunControl|AHT2YGAFX2|Negative_control|20210322</t>
+    <t xml:space="preserve">Dept_of_Health|AHS21001204|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl|AHTMV3AFX2|Blank_swab|NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl|AHTMV3AFX4|Negative_control|NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl|AHTMV3AFX5|Negative_control|NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seqRunControl|AHTMV3AFX6|Empty_well|NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101290600|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101290654|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300048|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300054|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2101300063|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030297|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030405|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030496|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040519|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040684|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040766|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102040793|VTM_or_Saline|20210209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102060042|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102080588|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102090603|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102100346|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102160885|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102160891|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170532|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170726|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170736|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170747|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170795|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102200033|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102220686|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230845|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230852|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230858|VTM|20210301</t>
   </si>
   <si>
     <t xml:space="preserve">B.1.526</t>
   </si>
   <si>
-    <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2101290600|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2101290654|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2101300048|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2101300054|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2101300063|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102030297|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102030496|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102040519|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102040684|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102040766|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept_of_Health|H2102040793|VTM_or_Saline|20210209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.427</t>
+    <t xml:space="preserve">Dept_of_Health|H2102240764|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102250351|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2103080906|VTM|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2103090759|VTM|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2103090778|VTM|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2103090803|Saline|20210317</t>
   </si>
   <si>
     <t xml:space="preserve">Molpath|HUP_PH-0017|Saline|20210222</t>
@@ -518,6 +611,21 @@
     <t xml:space="preserve">Molpath|HUP_PH-0023|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0024|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0025|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0026|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0027|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_PH-0028|Saliva|20210308</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP_Q-0005|Saline|20210222</t>
   </si>
   <si>
@@ -536,6 +644,105 @@
     <t xml:space="preserve">Molpath|HUP_Q-0010|Saline|20210222</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0011|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0012|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0014|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0015|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0016|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0017|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0018|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0019|Saliva|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0020|Saliva|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0021|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0022|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0023|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0024|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0025|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0026|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0029|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0031|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0032|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0033|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0034|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0036|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0037|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0038|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0040|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0041|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0042|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0043|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0044|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0046|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0048|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0049|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0052|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP_Q-0053|Saline|20210315</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|HUP-PH-0002|Saline|20210212</t>
   </si>
   <si>
@@ -572,6 +779,18 @@
     <t xml:space="preserve">Molpath|HUP-Q-0004|Saline|20210212</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0013|unknown|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0027|Saline|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|HUP-Q-0028|Saline|20210301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lennnon_animals|Lennon_canine1|Canine|20210301</t>
   </si>
   <si>
@@ -590,9 +809,6 @@
     <t xml:space="preserve">Molpath|molpath-seq1|Saline|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">R.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|molpath-seq3|Saline|20210201</t>
   </si>
   <si>
@@ -644,6 +860,9 @@
     <t xml:space="preserve">Molpath|MPCluster2-Seq3|Swab|20210201</t>
   </si>
   <si>
+    <t xml:space="preserve">Molpath|MPCluster2-Seq4|Swab|20210201</t>
+  </si>
+  <si>
     <t xml:space="preserve">Molpath|MPCluster2-Seq5|Swab|20210201</t>
   </si>
   <si>
@@ -725,6 +944,27 @@
     <t xml:space="preserve">Dept_of_Health|RISONS21001145|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">COVIDSAFE|S-210108-00462|unknown|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|S-210120-01295|unknown|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|S-210122-02024|unknown|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|S-210222-03420|unknown|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|S-210226-01457|unknown|20210317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COVIDSAFE|S−210203−01682|unknown|20210317</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUP|sdrop1_molpath|0.9%_Saline|20210108</t>
   </si>
   <si>
@@ -788,9 +1028,6 @@
     <t xml:space="preserve">Molpath|UPHS-0027|Saline|20210308</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.222</t>
-  </si>
-  <si>
     <t xml:space="preserve">Molpath|UPHS-0028|Saline|20210308</t>
   </si>
   <si>
@@ -975,6 +1212,231 @@
   </si>
   <si>
     <t xml:space="preserve">Molpath|UPHS-0094|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0096|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0098|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0100|Saline|20210308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0101|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0103|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0105|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0107|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0108|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0109|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0110|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0111|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0112|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0114|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0115|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0116|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0117|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0118|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0119|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0120|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0121|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0122|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0123|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0125|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0126|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0127|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0128|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0129|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0130|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0131|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0132|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0133|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0134|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0135|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0136|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0137|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0138|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0139|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0141|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0142|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0143|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0144|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0145|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0146|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0147|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0148|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0149|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0150|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0151|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0152|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0153|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0154|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0155|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0156|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0157|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0158|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0159|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0160|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0161|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0162|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0165|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0166|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0167|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0169|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0170|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0171|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0172|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0173|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0174|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0175|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0176|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0177|Saline|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0178|VTM|20210315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molpath|UPHS-0180|Saline|20210315</t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2741,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123">
@@ -2287,7 +2749,7 @@
         <v>139</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124">
@@ -2303,60 +2765,60 @@
         <v>141</v>
       </c>
       <c r="B125" t="s">
-        <v>142</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B131" t="s">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B132" t="s">
         <v>69</v>
@@ -2364,154 +2826,154 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
+        <v>172</v>
+      </c>
+      <c r="B151" t="s">
         <v>173</v>
-      </c>
-      <c r="B151" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="152">
@@ -2527,7 +2989,7 @@
         <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -2535,7 +2997,7 @@
         <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
@@ -2543,7 +3005,7 @@
         <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156">
@@ -2551,7 +3013,7 @@
         <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157">
@@ -2559,7 +3021,7 @@
         <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158">
@@ -2567,7 +3029,7 @@
         <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="159">
@@ -2575,7 +3037,7 @@
         <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -2583,28 +3045,28 @@
         <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
         <v>5</v>
@@ -2612,10 +3074,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165">
@@ -2623,31 +3085,31 @@
         <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B168" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169">
@@ -2655,7 +3117,7 @@
         <v>193</v>
       </c>
       <c r="B169" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
@@ -2663,76 +3125,76 @@
         <v>194</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>197</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B174" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B178" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B179" t="s">
         <v>5</v>
@@ -2740,271 +3202,271 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B181" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B190" t="s">
-        <v>187</v>
+        <v>5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B198" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B199" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B200" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B201" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B202" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B203" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B204" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B207" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B209" t="s">
-        <v>195</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B210" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B211" t="s">
-        <v>239</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -3012,55 +3474,55 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B216" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B217" t="s">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B218" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -3068,7 +3530,7 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -3076,154 +3538,154 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B222" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B223" t="s">
-        <v>192</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B224" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B225" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B226" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B227" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B228" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B229" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B230" t="s">
-        <v>146</v>
+        <v>256</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B233" t="s">
-        <v>192</v>
+        <v>260</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B234" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B236" t="s">
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B237" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B238" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B239" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
+        <v>268</v>
+      </c>
+      <c r="B240" t="s">
         <v>269</v>
-      </c>
-      <c r="B240" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="241">
@@ -3231,7 +3693,7 @@
         <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242">
@@ -3239,7 +3701,7 @@
         <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243">
@@ -3247,7 +3709,7 @@
         <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="244">
@@ -3255,7 +3717,7 @@
         <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245">
@@ -3263,7 +3725,7 @@
         <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246">
@@ -3271,7 +3733,7 @@
         <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247">
@@ -3279,7 +3741,7 @@
         <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248">
@@ -3287,7 +3749,7 @@
         <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -3295,7 +3757,7 @@
         <v>278</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250">
@@ -3303,7 +3765,7 @@
         <v>279</v>
       </c>
       <c r="B250" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251">
@@ -3311,7 +3773,7 @@
         <v>280</v>
       </c>
       <c r="B251" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252">
@@ -3319,7 +3781,7 @@
         <v>281</v>
       </c>
       <c r="B252" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253">
@@ -3327,7 +3789,7 @@
         <v>282</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254">
@@ -3335,7 +3797,7 @@
         <v>283</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255">
@@ -3343,7 +3805,7 @@
         <v>284</v>
       </c>
       <c r="B255" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256">
@@ -3351,7 +3813,7 @@
         <v>285</v>
       </c>
       <c r="B256" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257">
@@ -3359,7 +3821,7 @@
         <v>286</v>
       </c>
       <c r="B257" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
@@ -3367,92 +3829,92 @@
         <v>287</v>
       </c>
       <c r="B258" t="s">
-        <v>288</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B259" t="s">
-        <v>290</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B262" t="s">
-        <v>192</v>
+        <v>69</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B264" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B266" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B267" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B268" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B269" t="s">
         <v>69</v>
@@ -3460,119 +3922,119 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B271" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B272" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B273" t="s">
-        <v>142</v>
+        <v>298</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B274" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B275" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B276" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B277" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B278" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B279" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B280" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B281" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B282" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B283" t="s">
-        <v>154</v>
+        <v>314</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B284" t="s">
         <v>69</v>
@@ -3580,7 +4042,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B285" t="s">
         <v>5</v>
@@ -3588,18 +4050,18 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B286" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
+        <v>318</v>
+      </c>
+      <c r="B287" t="s">
         <v>319</v>
-      </c>
-      <c r="B287" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="288">
@@ -3607,6 +4069,1198 @@
         <v>320</v>
       </c>
       <c r="B288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>321</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>322</v>
+      </c>
+      <c r="B290" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>323</v>
+      </c>
+      <c r="B291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>324</v>
+      </c>
+      <c r="B292" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>325</v>
+      </c>
+      <c r="B293" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>326</v>
+      </c>
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>327</v>
+      </c>
+      <c r="B295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>328</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>329</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>330</v>
+      </c>
+      <c r="B298" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>331</v>
+      </c>
+      <c r="B299" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>332</v>
+      </c>
+      <c r="B300" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>333</v>
+      </c>
+      <c r="B301" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>334</v>
+      </c>
+      <c r="B302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>335</v>
+      </c>
+      <c r="B303" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>336</v>
+      </c>
+      <c r="B304" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>337</v>
+      </c>
+      <c r="B305" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>338</v>
+      </c>
+      <c r="B306" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>339</v>
+      </c>
+      <c r="B307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>340</v>
+      </c>
+      <c r="B308" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>341</v>
+      </c>
+      <c r="B309" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>342</v>
+      </c>
+      <c r="B310" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>343</v>
+      </c>
+      <c r="B311" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>344</v>
+      </c>
+      <c r="B312" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>345</v>
+      </c>
+      <c r="B313" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>346</v>
+      </c>
+      <c r="B314" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>347</v>
+      </c>
+      <c r="B315" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>348</v>
+      </c>
+      <c r="B316" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>349</v>
+      </c>
+      <c r="B317" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>350</v>
+      </c>
+      <c r="B318" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>351</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>352</v>
+      </c>
+      <c r="B320" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>353</v>
+      </c>
+      <c r="B321" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>354</v>
+      </c>
+      <c r="B322" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>355</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>356</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>357</v>
+      </c>
+      <c r="B325" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>358</v>
+      </c>
+      <c r="B326" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>359</v>
+      </c>
+      <c r="B327" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>360</v>
+      </c>
+      <c r="B328" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>361</v>
+      </c>
+      <c r="B329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>362</v>
+      </c>
+      <c r="B330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>363</v>
+      </c>
+      <c r="B331" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>364</v>
+      </c>
+      <c r="B332" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>365</v>
+      </c>
+      <c r="B333" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>366</v>
+      </c>
+      <c r="B334" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>368</v>
+      </c>
+      <c r="B335" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>370</v>
+      </c>
+      <c r="B336" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>371</v>
+      </c>
+      <c r="B337" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>372</v>
+      </c>
+      <c r="B338" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>373</v>
+      </c>
+      <c r="B339" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>374</v>
+      </c>
+      <c r="B340" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>375</v>
+      </c>
+      <c r="B341" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>376</v>
+      </c>
+      <c r="B342" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>377</v>
+      </c>
+      <c r="B343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>378</v>
+      </c>
+      <c r="B344" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>379</v>
+      </c>
+      <c r="B345" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>380</v>
+      </c>
+      <c r="B346" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>381</v>
+      </c>
+      <c r="B347" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>382</v>
+      </c>
+      <c r="B348" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>383</v>
+      </c>
+      <c r="B349" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>384</v>
+      </c>
+      <c r="B350" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>385</v>
+      </c>
+      <c r="B351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>386</v>
+      </c>
+      <c r="B352" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>387</v>
+      </c>
+      <c r="B353" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>389</v>
+      </c>
+      <c r="B354" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>390</v>
+      </c>
+      <c r="B355" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>391</v>
+      </c>
+      <c r="B356" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>392</v>
+      </c>
+      <c r="B357" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>393</v>
+      </c>
+      <c r="B358" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>394</v>
+      </c>
+      <c r="B359" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>395</v>
+      </c>
+      <c r="B360" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>396</v>
+      </c>
+      <c r="B361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>397</v>
+      </c>
+      <c r="B362" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>398</v>
+      </c>
+      <c r="B363" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>399</v>
+      </c>
+      <c r="B364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>400</v>
+      </c>
+      <c r="B365" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>401</v>
+      </c>
+      <c r="B366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>402</v>
+      </c>
+      <c r="B367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>403</v>
+      </c>
+      <c r="B368" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>404</v>
+      </c>
+      <c r="B369" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>405</v>
+      </c>
+      <c r="B370" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>406</v>
+      </c>
+      <c r="B371" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>407</v>
+      </c>
+      <c r="B372" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>409</v>
+      </c>
+      <c r="B373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>410</v>
+      </c>
+      <c r="B374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>411</v>
+      </c>
+      <c r="B375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>412</v>
+      </c>
+      <c r="B376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>413</v>
+      </c>
+      <c r="B377" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>414</v>
+      </c>
+      <c r="B378" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>415</v>
+      </c>
+      <c r="B379" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>416</v>
+      </c>
+      <c r="B380" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>417</v>
+      </c>
+      <c r="B381" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>418</v>
+      </c>
+      <c r="B382" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>419</v>
+      </c>
+      <c r="B383" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>420</v>
+      </c>
+      <c r="B384" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>421</v>
+      </c>
+      <c r="B385" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>422</v>
+      </c>
+      <c r="B386" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>423</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>424</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>425</v>
+      </c>
+      <c r="B389" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>426</v>
+      </c>
+      <c r="B390" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>427</v>
+      </c>
+      <c r="B391" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>428</v>
+      </c>
+      <c r="B392" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>429</v>
+      </c>
+      <c r="B393" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>430</v>
+      </c>
+      <c r="B394" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>431</v>
+      </c>
+      <c r="B395" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>432</v>
+      </c>
+      <c r="B396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>433</v>
+      </c>
+      <c r="B397" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>434</v>
+      </c>
+      <c r="B398" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>435</v>
+      </c>
+      <c r="B399" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>436</v>
+      </c>
+      <c r="B400" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>437</v>
+      </c>
+      <c r="B401" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>438</v>
+      </c>
+      <c r="B402" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>439</v>
+      </c>
+      <c r="B403" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>440</v>
+      </c>
+      <c r="B404" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>441</v>
+      </c>
+      <c r="B405" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>442</v>
+      </c>
+      <c r="B406" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>443</v>
+      </c>
+      <c r="B407" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>444</v>
+      </c>
+      <c r="B408" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>445</v>
+      </c>
+      <c r="B409" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>446</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>447</v>
+      </c>
+      <c r="B411" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>448</v>
+      </c>
+      <c r="B412" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>449</v>
+      </c>
+      <c r="B413" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>450</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>451</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>452</v>
+      </c>
+      <c r="B416" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>453</v>
+      </c>
+      <c r="B417" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>454</v>
+      </c>
+      <c r="B418" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>455</v>
+      </c>
+      <c r="B419" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>456</v>
+      </c>
+      <c r="B420" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>457</v>
+      </c>
+      <c r="B421" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>459</v>
+      </c>
+      <c r="B422" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>460</v>
+      </c>
+      <c r="B423" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>461</v>
+      </c>
+      <c r="B424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>462</v>
+      </c>
+      <c r="B425" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>463</v>
+      </c>
+      <c r="B426" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>464</v>
+      </c>
+      <c r="B427" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>465</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>466</v>
+      </c>
+      <c r="B429" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>467</v>
+      </c>
+      <c r="B430" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>468</v>
+      </c>
+      <c r="B431" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>469</v>
+      </c>
+      <c r="B432" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>470</v>
+      </c>
+      <c r="B433" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>471</v>
+      </c>
+      <c r="B434" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>472</v>
+      </c>
+      <c r="B435" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>473</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>474</v>
+      </c>
+      <c r="B437" t="s">
         <v>5</v>
       </c>
     </row>
